--- a/20 Measurement/Actual vs Plan.xlsx
+++ b/20 Measurement/Actual vs Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Git-CNPM\QLKS-CNPMNC\20 Measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B14C8-6B81-450E-95C0-CF69C9197910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B54E97-0AE8-45BD-9CF3-A61F6991720E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,13 +95,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -387,7 +501,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,133 +512,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
